--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,38 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilian\Documents\Schule\2023_24\02_W-Sem M\4 Code\Python\BenfordsLaw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C2533-4CBC-4F28-821C-904E715B542B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,22 +48,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -353,141 +411,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>30.102999566398118</v>
-      </c>
-      <c r="D2">
-        <v>17.609125905568121</v>
-      </c>
-      <c r="E2">
-        <v>12.493873660829991</v>
-      </c>
-      <c r="F2">
-        <v>9.6910013008056417</v>
-      </c>
-      <c r="G2">
-        <v>7.9181246047624816</v>
-      </c>
-      <c r="H2">
-        <v>6.6946789630613219</v>
-      </c>
-      <c r="I2">
-        <v>5.799194697768673</v>
-      </c>
-      <c r="J2">
-        <v>5.1152522447381292</v>
-      </c>
-      <c r="K2">
-        <v>4.5757490560675143</v>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>11.967926859688079</v>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45225.89500034683</v>
       </c>
-      <c r="C3">
-        <v>11.38901034075564</v>
+      <c r="B2" t="n">
+        <v>2</v>
       </c>
-      <c r="D3">
-        <v>10.88214990055082</v>
-      </c>
-      <c r="E3">
-        <v>10.43295602309594</v>
-      </c>
-      <c r="F3">
-        <v>10.030820226757941</v>
-      </c>
-      <c r="G3">
-        <v>9.6677235802322432</v>
-      </c>
-      <c r="H3">
-        <v>9.3374735783036158</v>
-      </c>
-      <c r="I3">
-        <v>9.0351989269603319</v>
-      </c>
-      <c r="J3">
-        <v>8.757005357886138</v>
-      </c>
-      <c r="K3">
-        <v>8.4997352057692233</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>10.17843646442167</v>
-      </c>
-      <c r="C4">
-        <v>10.13759774478013</v>
-      </c>
-      <c r="D4">
-        <v>10.09721981370417</v>
-      </c>
-      <c r="E4">
-        <v>10.05729321109262</v>
-      </c>
-      <c r="F4">
-        <v>10.017808762794759</v>
-      </c>
-      <c r="G4">
-        <v>9.9787575692177413</v>
-      </c>
-      <c r="H4">
-        <v>9.940130994496176</v>
-      </c>
-      <c r="I4">
-        <v>9.9019206561895992</v>
-      </c>
-      <c r="J4">
-        <v>9.8641184154777211</v>
-      </c>
-      <c r="K4">
-        <v>9.8267163678253286</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>10.01761469399356</v>
-      </c>
-      <c r="C5">
-        <v>10.013688811757801</v>
-      </c>
-      <c r="D5">
-        <v>10.009767259461491</v>
-      </c>
-      <c r="E5">
-        <v>10.005850028348689</v>
-      </c>
-      <c r="F5">
-        <v>10.00193710969045</v>
-      </c>
-      <c r="G5">
-        <v>9.9980284947840996</v>
-      </c>
-      <c r="H5">
-        <v>9.9941241749526029</v>
-      </c>
-      <c r="I5">
-        <v>9.990224141544914</v>
-      </c>
-      <c r="J5">
-        <v>9.9863283859372434</v>
-      </c>
-      <c r="K5">
-        <v>9.9824368995291266</v>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
